--- a/Assets/InProject/Excels/ExperimentEquipmentConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentEquipmentConfig.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>string</t>
   </si>
@@ -113,15 +113,58 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>aaa</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
+    <t>烘箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>细筛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土皿1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>称量盒1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合测定仪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土杯</t>
+  </si>
+  <si>
+    <t>现代土工试验中常用的一种取土样工具，一般为钢制品。环刀是用来取原状土(未扰动)实验用样的一种常用仪器，用来做容重(土体密度)、压缩、剪切和渗透等试验。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代土工试验中常用的工具，用于切开环刀周围多余的土样。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡士林油是一种石油产品精制而成的，这种物质无色，无味，没有荧光成分，具有稳定的化学安全性和油腻感，可以当做润滑剂和稳定剂。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>称量工具，天平（称量范围3000克，感量0.01克）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代土工实验室中可以完成干燥、烘焙、熔蜡、灭菌、固化等操作。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电液塑限联合测定仪用来测定土壤的液限和塑限，为划分土类，计算天然稠度，塑性指数提供可靠的数据（测定仪的圆锥质量为76克，锥角为30°）。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +309,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +368,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,14 +685,14 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="12" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="119.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="14" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="12" customWidth="1"/>
@@ -689,7 +738,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -697,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -710,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -756,42 +805,137 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/Assets/InProject/Excels/ExperimentEquipmentConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentEquipmentConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitypro\SoilExperiment\SoilExperiment\Assets\InProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\github\Soil\SoilExperiment\Assets\InProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D2318-E24C-4175-A768-AF053F40294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -309,17 +310,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,22 +329,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -361,17 +359,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -379,8 +374,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 5" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,7 +391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,6 +466,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -506,6 +518,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,26 +710,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="119.875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="13" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="119.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -712,18 +741,18 @@
       <c r="D1" s="7"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -732,11 +761,11 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -827,46 +856,46 @@
       <c r="A11" s="3">
         <v>1008</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>1009</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>1010</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>1011</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>1012</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -874,100 +903,97 @@
       <c r="A16" s="3">
         <v>1013</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>1014</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B48" s="12"/>
-      <c r="D48" s="12"/>
-    </row>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D51" s="15"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D52" s="15"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -978,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -992,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Assets/InProject/Excels/ExperimentEquipmentConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentEquipmentConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\github\Soil\SoilExperiment\Assets\InProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubrepository\test\SoilExperiment\Assets\InProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D2318-E24C-4175-A768-AF053F40294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,6 +89,41 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>刮土刀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调土刀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡士林</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>细筛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土皿1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>称量盒1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土杯</t>
+  </si>
+  <si>
+    <t>刷子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>环刀</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -98,19 +132,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>刮土刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>调土刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>凡士林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天平</t>
+    <t>电子秤</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -118,61 +140,38 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>干燥器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>细筛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛土皿1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>称量盒1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>联合测定仪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>盛土杯</t>
-  </si>
-  <si>
-    <t>现代土工试验中常用的一种取土样工具，一般为钢制品。环刀是用来取原状土(未扰动)实验用样的一种常用仪器，用来做容重(土体密度)、压缩、剪切和渗透等试验。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>现代土工试验中常用的工具，用于切开环刀周围多余的土样。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>凡士林油是一种石油产品精制而成的，这种物质无色，无味，没有荧光成分，具有稳定的化学安全性和油腻感，可以当做润滑剂和稳定剂。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>称量工具，天平（称量范围3000克，感量0.01克）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>现代土工实验室中可以完成干燥、烘焙、熔蜡、灭菌、固化等操作。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>光电液塑限联合测定仪用来测定土壤的液限和塑限，为划分土类，计算天然稠度，塑性指数提供可靠的数据（测定仪的圆锥质量为76克，锥角为30°）。</t>
+    <t>环刀：现代土工试验中常用的一种取土样工具，一般为钢制品。环刀是用来取原状土(未扰动)实验用样的一种常用仪器，用来做容重(土体密度)、压缩、剪切和渗透等试验。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>削土刀：现代土工试验中常用的工具，用于切开环刀周围多余的土样。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子秤：称量工具，天平（称量范围3000克，感量0.01克）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烘箱：现代土工实验室中可以完成干燥、烘焙、熔蜡、灭菌、固化等操作。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合测定仪：光电液塑限联合测定仪用来测定土壤的液限和塑限，为划分土类，计算天然稠度，塑性指数提供可靠的数据（测定仪的圆锥质量为76克，锥角为30°）。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡士林：凡士林油是一种石油产品精制而成的，这种物质无色，无味，没有荧光成分，具有稳定的化学安全性和油腻感，可以当做润滑剂和稳定剂。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -374,8 +373,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,23 +465,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -518,23 +500,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -710,11 +675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -772,10 +737,10 @@
         <v>1001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -785,10 +750,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -798,7 +763,7 @@
         <v>1003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -809,7 +774,7 @@
         <v>1004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -820,7 +785,7 @@
         <v>1005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -831,10 +796,10 @@
         <v>1006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -844,10 +809,10 @@
         <v>1007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -857,7 +822,7 @@
         <v>1008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -866,7 +831,7 @@
         <v>1009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -875,7 +840,7 @@
         <v>1010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -884,7 +849,7 @@
         <v>1011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -893,10 +858,10 @@
         <v>1012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -904,7 +869,7 @@
         <v>1013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -913,10 +878,10 @@
         <v>1014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1004,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1018,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
